--- a/geoAI/data/spread_sheets/UK_GDP.xlsx
+++ b/geoAI/data/spread_sheets/UK_GDP.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officenationalstatistics.sharepoint.com/sites/NACDRegAcc/RegProd/2022 GDP round/Publication/Interactive map and charts_Limited access/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/sz2e24_soton_ac_uk/Documents/1Research/GitHub/geoAI/geoAI/data/spread_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64935351-0501-454F-AE7A-ED28B16B2028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{64935351-0501-454F-AE7A-ED28B16B2028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A2289C2-02F6-4D0B-88E5-219FFDC8B18C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E6FFDCD-332B-4A19-9C4A-56482D362DCD}"/>
+    <workbookView xWindow="-37560" yWindow="7890" windowWidth="17100" windowHeight="9900" xr2:uid="{0E6FFDCD-332B-4A19-9C4A-56482D362DCD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2283,7 +2283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2331,9 +2331,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2371,7 +2371,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2477,7 +2477,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2619,7 +2619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2633,13 +2633,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>36844</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>18951</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>33544</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>26247</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>17727</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>27730</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>23169</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>22656</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>28688</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>16624</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>27287</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>29623</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>27305</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>33242</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>59136</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>39925</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>49997</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>31361</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>18977</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>25965</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>21487</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>22333</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>21258</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>21779</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>28019</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>25725</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>26739</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>20801</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>38158</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>36831</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>36135</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>46023</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>27341</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>22457</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>21981</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>20094</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>25248</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>30826</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>48417</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>41538</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>111</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>29380</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>117</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>37449</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>119</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>21264</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>22340</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>29240</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>29347</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>127</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>30088</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>40828</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>32886</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>22147</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>24968</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>22919</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>30896</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>23644</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>42209</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>30209</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>22703</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>29107</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>35451</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>32507</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>157</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>32207</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>20054</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>28496</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>28939</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>20882</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>22710</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>29035</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>26377</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>25573</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>20187</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>26975</v>
       </c>
     </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>25860</v>
       </c>
     </row>
-    <row r="80" spans="1:27">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>17969</v>
       </c>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>32597</v>
       </c>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>29831</v>
       </c>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>28434</v>
       </c>
     </row>
-    <row r="84" spans="1:27">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="85" spans="1:27">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>27222</v>
       </c>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>195</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>27081</v>
       </c>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>27838</v>
       </c>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>31821</v>
       </c>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>18091</v>
       </c>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>38081</v>
       </c>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>25777</v>
       </c>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>25752</v>
       </c>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>22097</v>
       </c>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>33004</v>
       </c>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>30425</v>
       </c>
     </row>
-    <row r="97" spans="1:27">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>217</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>28973</v>
       </c>
     </row>
-    <row r="98" spans="1:27">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>26065</v>
       </c>
     </row>
-    <row r="99" spans="1:27">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>221</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>23863</v>
       </c>
     </row>
-    <row r="100" spans="1:27">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="101" spans="1:27">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>225</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>37708</v>
       </c>
     </row>
-    <row r="102" spans="1:27">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>227</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>26588</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>229</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>28353</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>231</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>36670</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>233</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>28985</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>235</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>19225</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>237</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>53873</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>239</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>20867</v>
       </c>
     </row>
-    <row r="109" spans="1:27">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>241</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>33198</v>
       </c>
     </row>
-    <row r="110" spans="1:27">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>243</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>40681</v>
       </c>
     </row>
-    <row r="111" spans="1:27">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>245</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>50460</v>
       </c>
     </row>
-    <row r="112" spans="1:27">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>247</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>36105</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>27464</v>
       </c>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>251</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>29709</v>
       </c>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>253</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>27447</v>
       </c>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>255</v>
       </c>
@@ -12267,7 +12267,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
         <v>257</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>31601</v>
       </c>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
         <v>259</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>25158</v>
       </c>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
         <v>261</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>24604</v>
       </c>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
         <v>263</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>31123</v>
       </c>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
         <v>265</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>22869</v>
       </c>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
         <v>267</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>30900</v>
       </c>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
         <v>269</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>30552</v>
       </c>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
         <v>271</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>48712</v>
       </c>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>33117</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
         <v>275</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>21145</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
         <v>277</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>22691</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
         <v>279</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>20665</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
         <v>281</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>25595</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
         <v>283</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>36764</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>58989</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>287</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>27212</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A133" t="s">
         <v>289</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>23234</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A134" t="s">
         <v>291</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>31633</v>
       </c>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>43084</v>
       </c>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A136" t="s">
         <v>295</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>24694</v>
       </c>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
         <v>297</v>
       </c>
@@ -14010,7 +14010,7 @@
         <v>36583</v>
       </c>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
         <v>299</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>26933</v>
       </c>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
         <v>301</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>27263</v>
       </c>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A140" t="s">
         <v>303</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>36196</v>
       </c>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>37170</v>
       </c>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A142" t="s">
         <v>307</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>24821</v>
       </c>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A143" t="s">
         <v>309</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>34320</v>
       </c>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A144" t="s">
         <v>311</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>25397</v>
       </c>
     </row>
-    <row r="145" spans="1:27">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A145" t="s">
         <v>313</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>20433</v>
       </c>
     </row>
-    <row r="146" spans="1:27">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A146" t="s">
         <v>315</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>22991</v>
       </c>
     </row>
-    <row r="147" spans="1:27">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>26311</v>
       </c>
     </row>
-    <row r="148" spans="1:27">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A148" t="s">
         <v>319</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>33624</v>
       </c>
     </row>
-    <row r="149" spans="1:27">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A149" t="s">
         <v>321</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>28780</v>
       </c>
     </row>
-    <row r="150" spans="1:27">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A150" t="s">
         <v>323</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>40588</v>
       </c>
     </row>
-    <row r="151" spans="1:27">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A151" t="s">
         <v>325</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>52560</v>
       </c>
     </row>
-    <row r="152" spans="1:27">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A152" t="s">
         <v>327</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>36268</v>
       </c>
     </row>
-    <row r="153" spans="1:27">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A153" t="s">
         <v>329</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>55947</v>
       </c>
     </row>
-    <row r="154" spans="1:27">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A154" t="s">
         <v>331</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>54625</v>
       </c>
     </row>
-    <row r="155" spans="1:27">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A155" t="s">
         <v>333</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>39189</v>
       </c>
     </row>
-    <row r="156" spans="1:27">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A156" t="s">
         <v>335</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>55993</v>
       </c>
     </row>
-    <row r="157" spans="1:27">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A157" t="s">
         <v>337</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>33700</v>
       </c>
     </row>
-    <row r="158" spans="1:27">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A158" t="s">
         <v>339</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>35834</v>
       </c>
     </row>
-    <row r="159" spans="1:27">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -15836,7 +15836,7 @@
         <v>29394</v>
       </c>
     </row>
-    <row r="160" spans="1:27">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A160" t="s">
         <v>343</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>25241</v>
       </c>
     </row>
-    <row r="161" spans="1:27">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A161" t="s">
         <v>345</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>21520</v>
       </c>
     </row>
-    <row r="162" spans="1:27">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A162" t="s">
         <v>347</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>35404</v>
       </c>
     </row>
-    <row r="163" spans="1:27">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A163" t="s">
         <v>349</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>29591</v>
       </c>
     </row>
-    <row r="164" spans="1:27">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A164" t="s">
         <v>351</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>30059</v>
       </c>
     </row>
-    <row r="165" spans="1:27">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A165" t="s">
         <v>353</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>18217</v>
       </c>
     </row>
-    <row r="166" spans="1:27">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>36619</v>
       </c>
     </row>
-    <row r="167" spans="1:27">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>29079</v>
       </c>
     </row>
-    <row r="168" spans="1:27">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A168" t="s">
         <v>359</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>33689</v>
       </c>
     </row>
-    <row r="169" spans="1:27">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A169" t="s">
         <v>361</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="170" spans="1:27">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A170" t="s">
         <v>363</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>38563</v>
       </c>
     </row>
-    <row r="171" spans="1:27">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A171" t="s">
         <v>365</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>22832</v>
       </c>
     </row>
-    <row r="172" spans="1:27">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A172" t="s">
         <v>367</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="173" spans="1:27">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A173" t="s">
         <v>369</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>16709</v>
       </c>
     </row>
-    <row r="174" spans="1:27">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>21720</v>
       </c>
     </row>
-    <row r="175" spans="1:27">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>174117</v>
       </c>
     </row>
-    <row r="176" spans="1:27">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A176" t="s">
         <v>375</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>67119</v>
       </c>
     </row>
-    <row r="177" spans="1:27">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A177" t="s">
         <v>377</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>77613</v>
       </c>
     </row>
-    <row r="178" spans="1:27">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A178" t="s">
         <v>379</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>28305</v>
       </c>
     </row>
-    <row r="179" spans="1:27">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A179" t="s">
         <v>381</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>47985</v>
       </c>
     </row>
-    <row r="180" spans="1:27">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A180" t="s">
         <v>383</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>24069</v>
       </c>
     </row>
-    <row r="181" spans="1:27">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A181" t="s">
         <v>385</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>116712</v>
       </c>
     </row>
-    <row r="182" spans="1:27">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A182" t="s">
         <v>387</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>20689</v>
       </c>
     </row>
-    <row r="183" spans="1:27">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A183" t="s">
         <v>389</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>120410</v>
       </c>
     </row>
-    <row r="184" spans="1:27">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A184" t="s">
         <v>391</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>16258</v>
       </c>
     </row>
-    <row r="185" spans="1:27">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A185" t="s">
         <v>393</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>73715</v>
       </c>
     </row>
-    <row r="186" spans="1:27">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A186" t="s">
         <v>395</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>50630</v>
       </c>
     </row>
-    <row r="187" spans="1:27">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A187" t="s">
         <v>397</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>28451</v>
       </c>
     </row>
-    <row r="188" spans="1:27">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A188" t="s">
         <v>399</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>24463</v>
       </c>
     </row>
-    <row r="189" spans="1:27">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A189" t="s">
         <v>401</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>20455</v>
       </c>
     </row>
-    <row r="190" spans="1:27">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A190" t="s">
         <v>403</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>29713</v>
       </c>
     </row>
-    <row r="191" spans="1:27">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A191" t="s">
         <v>405</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>20643</v>
       </c>
     </row>
-    <row r="192" spans="1:27">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A192" t="s">
         <v>407</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>20492</v>
       </c>
     </row>
-    <row r="193" spans="1:27">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A193" t="s">
         <v>409</v>
       </c>
@@ -18658,7 +18658,7 @@
         <v>28548</v>
       </c>
     </row>
-    <row r="194" spans="1:27">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A194" t="s">
         <v>411</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>27607</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A195" t="s">
         <v>413</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>32105</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A196" t="s">
         <v>415</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>35143</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A197" t="s">
         <v>417</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>31027</v>
       </c>
     </row>
-    <row r="198" spans="1:27">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -19073,7 +19073,7 @@
         <v>25211</v>
       </c>
     </row>
-    <row r="199" spans="1:27">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>29211</v>
       </c>
     </row>
-    <row r="200" spans="1:27">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A200" t="s">
         <v>423</v>
       </c>
@@ -19239,7 +19239,7 @@
         <v>30962</v>
       </c>
     </row>
-    <row r="201" spans="1:27">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A201" t="s">
         <v>425</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>28604</v>
       </c>
     </row>
-    <row r="202" spans="1:27">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A202" t="s">
         <v>427</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>24029</v>
       </c>
     </row>
-    <row r="203" spans="1:27">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A203" t="s">
         <v>429</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="204" spans="1:27">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A204" t="s">
         <v>431</v>
       </c>
@@ -19571,7 +19571,7 @@
         <v>57266</v>
       </c>
     </row>
-    <row r="205" spans="1:27">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A205" t="s">
         <v>433</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>40376</v>
       </c>
     </row>
-    <row r="206" spans="1:27">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A206" t="s">
         <v>435</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>46333</v>
       </c>
     </row>
-    <row r="207" spans="1:27">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A207" t="s">
         <v>437</v>
       </c>
@@ -19820,7 +19820,7 @@
         <v>61329</v>
       </c>
     </row>
-    <row r="208" spans="1:27">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A208" t="s">
         <v>439</v>
       </c>
@@ -19903,7 +19903,7 @@
         <v>64771</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A209" t="s">
         <v>441</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>73525</v>
       </c>
     </row>
-    <row r="210" spans="1:27">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A210" t="s">
         <v>443</v>
       </c>
@@ -20069,7 +20069,7 @@
         <v>58058</v>
       </c>
     </row>
-    <row r="211" spans="1:27">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A211" t="s">
         <v>445</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>58624</v>
       </c>
     </row>
-    <row r="212" spans="1:27">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A212" t="s">
         <v>447</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>55470</v>
       </c>
     </row>
-    <row r="213" spans="1:27">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A213" t="s">
         <v>449</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>36341</v>
       </c>
     </row>
-    <row r="214" spans="1:27">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A214" t="s">
         <v>451</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="215" spans="1:27">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A215" t="s">
         <v>453</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>55185</v>
       </c>
     </row>
-    <row r="216" spans="1:27">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A216" t="s">
         <v>455</v>
       </c>
@@ -20567,7 +20567,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="217" spans="1:27">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A217" t="s">
         <v>457</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="218" spans="1:27">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A218" t="s">
         <v>459</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>32257</v>
       </c>
     </row>
-    <row r="219" spans="1:27">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A219" t="s">
         <v>461</v>
       </c>
@@ -20816,7 +20816,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="220" spans="1:27">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A220" t="s">
         <v>463</v>
       </c>
@@ -20899,7 +20899,7 @@
         <v>25134</v>
       </c>
     </row>
-    <row r="221" spans="1:27">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A221" t="s">
         <v>465</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>22164</v>
       </c>
     </row>
-    <row r="222" spans="1:27">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A222" t="s">
         <v>467</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>25259</v>
       </c>
     </row>
-    <row r="223" spans="1:27">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A223" t="s">
         <v>469</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>20182</v>
       </c>
     </row>
-    <row r="224" spans="1:27">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A224" t="s">
         <v>471</v>
       </c>
@@ -21231,7 +21231,7 @@
         <v>22155</v>
       </c>
     </row>
-    <row r="225" spans="1:27">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A225" t="s">
         <v>473</v>
       </c>
@@ -21314,7 +21314,7 @@
         <v>53742</v>
       </c>
     </row>
-    <row r="226" spans="1:27">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A226" t="s">
         <v>475</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>47719</v>
       </c>
     </row>
-    <row r="227" spans="1:27">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A227" t="s">
         <v>477</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>87277</v>
       </c>
     </row>
-    <row r="228" spans="1:27">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A228" t="s">
         <v>479</v>
       </c>
@@ -21563,7 +21563,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="229" spans="1:27">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A229" t="s">
         <v>481</v>
       </c>
@@ -21646,7 +21646,7 @@
         <v>47282</v>
       </c>
     </row>
-    <row r="230" spans="1:27">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A230" t="s">
         <v>483</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>32961</v>
       </c>
     </row>
-    <row r="231" spans="1:27">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A231" t="s">
         <v>485</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>34472</v>
       </c>
     </row>
-    <row r="232" spans="1:27">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A232" t="s">
         <v>487</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>27171</v>
       </c>
     </row>
-    <row r="233" spans="1:27">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A233" t="s">
         <v>489</v>
       </c>
@@ -21978,7 +21978,7 @@
         <v>60867</v>
       </c>
     </row>
-    <row r="234" spans="1:27">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A234" t="s">
         <v>491</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>50132</v>
       </c>
     </row>
-    <row r="235" spans="1:27">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A235" t="s">
         <v>493</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>28774</v>
       </c>
     </row>
-    <row r="236" spans="1:27">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A236" t="s">
         <v>495</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>23304</v>
       </c>
     </row>
-    <row r="237" spans="1:27">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A237" t="s">
         <v>497</v>
       </c>
@@ -22310,7 +22310,7 @@
         <v>20359</v>
       </c>
     </row>
-    <row r="238" spans="1:27">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A238" t="s">
         <v>499</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>35047</v>
       </c>
     </row>
-    <row r="239" spans="1:27">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A239" t="s">
         <v>501</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>47513</v>
       </c>
     </row>
-    <row r="240" spans="1:27">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A240" t="s">
         <v>503</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>56272</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A241" t="s">
         <v>505</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>29316</v>
       </c>
     </row>
-    <row r="242" spans="1:27">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A242" t="s">
         <v>507</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>29374</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A243" t="s">
         <v>509</v>
       </c>
@@ -22808,7 +22808,7 @@
         <v>40194</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A244" t="s">
         <v>511</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>43503</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A245" t="s">
         <v>513</v>
       </c>
@@ -22974,7 +22974,7 @@
         <v>25727</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A246" t="s">
         <v>515</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>38703</v>
       </c>
     </row>
-    <row r="247" spans="1:27">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A247" t="s">
         <v>517</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>35131</v>
       </c>
     </row>
-    <row r="248" spans="1:27">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A248" t="s">
         <v>519</v>
       </c>
@@ -23223,7 +23223,7 @@
         <v>18740</v>
       </c>
     </row>
-    <row r="249" spans="1:27">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A249" t="s">
         <v>521</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>25340</v>
       </c>
     </row>
-    <row r="250" spans="1:27">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A250" t="s">
         <v>523</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>27987</v>
       </c>
     </row>
-    <row r="251" spans="1:27">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A251" t="s">
         <v>525</v>
       </c>
@@ -23472,7 +23472,7 @@
         <v>36550</v>
       </c>
     </row>
-    <row r="252" spans="1:27">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A252" t="s">
         <v>527</v>
       </c>
@@ -23555,7 +23555,7 @@
         <v>35038</v>
       </c>
     </row>
-    <row r="253" spans="1:27">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A253" t="s">
         <v>529</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>51590</v>
       </c>
     </row>
-    <row r="254" spans="1:27">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A254" t="s">
         <v>531</v>
       </c>
@@ -23721,7 +23721,7 @@
         <v>48180</v>
       </c>
     </row>
-    <row r="255" spans="1:27">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A255" t="s">
         <v>533</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="256" spans="1:27">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A256" t="s">
         <v>535</v>
       </c>
@@ -23887,7 +23887,7 @@
         <v>70857</v>
       </c>
     </row>
-    <row r="257" spans="1:27">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A257" t="s">
         <v>537</v>
       </c>
@@ -23970,7 +23970,7 @@
         <v>27265</v>
       </c>
     </row>
-    <row r="258" spans="1:27">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A258" t="s">
         <v>539</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>38756</v>
       </c>
     </row>
-    <row r="259" spans="1:27">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A259" t="s">
         <v>541</v>
       </c>
@@ -24136,7 +24136,7 @@
         <v>23851</v>
       </c>
     </row>
-    <row r="260" spans="1:27">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A260" t="s">
         <v>543</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>25394</v>
       </c>
     </row>
-    <row r="261" spans="1:27">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A261" t="s">
         <v>545</v>
       </c>
@@ -24302,7 +24302,7 @@
         <v>28996</v>
       </c>
     </row>
-    <row r="262" spans="1:27">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A262" t="s">
         <v>547</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>27940</v>
       </c>
     </row>
-    <row r="263" spans="1:27">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A263" t="s">
         <v>549</v>
       </c>
@@ -24468,7 +24468,7 @@
         <v>25679</v>
       </c>
     </row>
-    <row r="264" spans="1:27">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A264" t="s">
         <v>551</v>
       </c>
@@ -24551,7 +24551,7 @@
         <v>20793</v>
       </c>
     </row>
-    <row r="265" spans="1:27">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A265" t="s">
         <v>553</v>
       </c>
@@ -24634,7 +24634,7 @@
         <v>29920</v>
       </c>
     </row>
-    <row r="266" spans="1:27">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A266" t="s">
         <v>555</v>
       </c>
@@ -24717,7 +24717,7 @@
         <v>32807</v>
       </c>
     </row>
-    <row r="267" spans="1:27">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A267" t="s">
         <v>557</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="268" spans="1:27">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A268" t="s">
         <v>559</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="269" spans="1:27">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A269" t="s">
         <v>561</v>
       </c>
@@ -24966,7 +24966,7 @@
         <v>38264</v>
       </c>
     </row>
-    <row r="270" spans="1:27">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A270" t="s">
         <v>563</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>44043</v>
       </c>
     </row>
-    <row r="271" spans="1:27">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A271" t="s">
         <v>565</v>
       </c>
@@ -25132,7 +25132,7 @@
         <v>29460</v>
       </c>
     </row>
-    <row r="272" spans="1:27">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A272" t="s">
         <v>567</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>27918</v>
       </c>
     </row>
-    <row r="273" spans="1:27">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A273" t="s">
         <v>569</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>55593</v>
       </c>
     </row>
-    <row r="274" spans="1:27">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A274" t="s">
         <v>571</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>36491</v>
       </c>
     </row>
-    <row r="275" spans="1:27">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A275" t="s">
         <v>573</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>49182</v>
       </c>
     </row>
-    <row r="276" spans="1:27">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A276" t="s">
         <v>575</v>
       </c>
@@ -25547,7 +25547,7 @@
         <v>28085</v>
       </c>
     </row>
-    <row r="277" spans="1:27">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A277" t="s">
         <v>577</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>29454</v>
       </c>
     </row>
-    <row r="278" spans="1:27">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A278" t="s">
         <v>579</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>29705</v>
       </c>
     </row>
-    <row r="279" spans="1:27">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A279" t="s">
         <v>581</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>43372</v>
       </c>
     </row>
-    <row r="280" spans="1:27">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A280" t="s">
         <v>583</v>
       </c>
@@ -25879,7 +25879,7 @@
         <v>52860</v>
       </c>
     </row>
-    <row r="281" spans="1:27">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A281" t="s">
         <v>585</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>31712</v>
       </c>
     </row>
-    <row r="282" spans="1:27">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A282" t="s">
         <v>587</v>
       </c>
@@ -26045,7 +26045,7 @@
         <v>28036</v>
       </c>
     </row>
-    <row r="283" spans="1:27">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A283" t="s">
         <v>589</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>34051</v>
       </c>
     </row>
-    <row r="284" spans="1:27">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A284" t="s">
         <v>591</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>28439</v>
       </c>
     </row>
-    <row r="285" spans="1:27">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A285" t="s">
         <v>593</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="286" spans="1:27">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A286" t="s">
         <v>595</v>
       </c>
@@ -26377,7 +26377,7 @@
         <v>37776</v>
       </c>
     </row>
-    <row r="287" spans="1:27">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A287" t="s">
         <v>597</v>
       </c>
@@ -26460,7 +26460,7 @@
         <v>29686</v>
       </c>
     </row>
-    <row r="288" spans="1:27">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A288" t="s">
         <v>599</v>
       </c>
@@ -26543,7 +26543,7 @@
         <v>20669</v>
       </c>
     </row>
-    <row r="289" spans="1:27">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A289" t="s">
         <v>601</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>27288</v>
       </c>
     </row>
-    <row r="290" spans="1:27">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A290" t="s">
         <v>603</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>52562</v>
       </c>
     </row>
-    <row r="291" spans="1:27">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A291" t="s">
         <v>605</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>23931</v>
       </c>
     </row>
-    <row r="292" spans="1:27">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A292" t="s">
         <v>607</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>30809</v>
       </c>
     </row>
-    <row r="293" spans="1:27">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A293" t="s">
         <v>609</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>32162</v>
       </c>
     </row>
-    <row r="294" spans="1:27">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A294" t="s">
         <v>611</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>25279</v>
       </c>
     </row>
-    <row r="295" spans="1:27">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A295" t="s">
         <v>613</v>
       </c>
@@ -27124,7 +27124,7 @@
         <v>21132</v>
       </c>
     </row>
-    <row r="296" spans="1:27">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A296" t="s">
         <v>615</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="297" spans="1:27">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A297" t="s">
         <v>617</v>
       </c>
@@ -27290,7 +27290,7 @@
         <v>22822</v>
       </c>
     </row>
-    <row r="298" spans="1:27">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A298" t="s">
         <v>619</v>
       </c>
@@ -27373,7 +27373,7 @@
         <v>26123</v>
       </c>
     </row>
-    <row r="299" spans="1:27">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A299" t="s">
         <v>621</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>20562</v>
       </c>
     </row>
-    <row r="300" spans="1:27">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A300" t="s">
         <v>623</v>
       </c>
@@ -27539,7 +27539,7 @@
         <v>26474</v>
       </c>
     </row>
-    <row r="301" spans="1:27">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A301" t="s">
         <v>625</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>25124</v>
       </c>
     </row>
-    <row r="302" spans="1:27">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A302" t="s">
         <v>627</v>
       </c>
@@ -27705,7 +27705,7 @@
         <v>27020</v>
       </c>
     </row>
-    <row r="303" spans="1:27">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A303" t="s">
         <v>629</v>
       </c>
@@ -27788,7 +27788,7 @@
         <v>24409</v>
       </c>
     </row>
-    <row r="304" spans="1:27">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A304" t="s">
         <v>631</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>23540</v>
       </c>
     </row>
-    <row r="305" spans="1:27">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A305" t="s">
         <v>633</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>21663</v>
       </c>
     </row>
-    <row r="306" spans="1:27">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A306" t="s">
         <v>635</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>21381</v>
       </c>
     </row>
-    <row r="307" spans="1:27">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A307" t="s">
         <v>637</v>
       </c>
@@ -28120,7 +28120,7 @@
         <v>19090</v>
       </c>
     </row>
-    <row r="308" spans="1:27">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A308" t="s">
         <v>639</v>
       </c>
@@ -28203,7 +28203,7 @@
         <v>24061</v>
       </c>
     </row>
-    <row r="309" spans="1:27">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A309" t="s">
         <v>641</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>22933</v>
       </c>
     </row>
-    <row r="310" spans="1:27">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A310" t="s">
         <v>643</v>
       </c>
@@ -28369,7 +28369,7 @@
         <v>27761</v>
       </c>
     </row>
-    <row r="311" spans="1:27">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A311" t="s">
         <v>645</v>
       </c>
@@ -28452,7 +28452,7 @@
         <v>27525</v>
       </c>
     </row>
-    <row r="312" spans="1:27">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A312" t="s">
         <v>647</v>
       </c>
@@ -28535,7 +28535,7 @@
         <v>26923</v>
       </c>
     </row>
-    <row r="313" spans="1:27">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A313" t="s">
         <v>649</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>30598</v>
       </c>
     </row>
-    <row r="314" spans="1:27">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A314" t="s">
         <v>651</v>
       </c>
@@ -28701,7 +28701,7 @@
         <v>19495</v>
       </c>
     </row>
-    <row r="315" spans="1:27">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A315" t="s">
         <v>653</v>
       </c>
@@ -28784,7 +28784,7 @@
         <v>40950</v>
       </c>
     </row>
-    <row r="316" spans="1:27">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A316" t="s">
         <v>655</v>
       </c>
@@ -28867,7 +28867,7 @@
         <v>34497</v>
       </c>
     </row>
-    <row r="317" spans="1:27">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A317" t="s">
         <v>657</v>
       </c>
@@ -28950,7 +28950,7 @@
         <v>31928</v>
       </c>
     </row>
-    <row r="318" spans="1:27">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A318" t="s">
         <v>659</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>22052</v>
       </c>
     </row>
-    <row r="319" spans="1:27">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A319" t="s">
         <v>661</v>
       </c>
@@ -29116,7 +29116,7 @@
         <v>52517</v>
       </c>
     </row>
-    <row r="320" spans="1:27">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A320" t="s">
         <v>663</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>31243</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A321" t="s">
         <v>665</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>32974</v>
       </c>
     </row>
-    <row r="322" spans="1:27">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A322" t="s">
         <v>667</v>
       </c>
@@ -29365,7 +29365,7 @@
         <v>30635</v>
       </c>
     </row>
-    <row r="323" spans="1:27">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A323" t="s">
         <v>669</v>
       </c>
@@ -29448,7 +29448,7 @@
         <v>23551</v>
       </c>
     </row>
-    <row r="324" spans="1:27">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A324" t="s">
         <v>671</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>31394</v>
       </c>
     </row>
-    <row r="325" spans="1:27">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A325" t="s">
         <v>673</v>
       </c>
@@ -29614,7 +29614,7 @@
         <v>25432</v>
       </c>
     </row>
-    <row r="326" spans="1:27">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A326" t="s">
         <v>675</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>30106</v>
       </c>
     </row>
-    <row r="327" spans="1:27">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A327" t="s">
         <v>677</v>
       </c>
@@ -29780,7 +29780,7 @@
         <v>37459</v>
       </c>
     </row>
-    <row r="328" spans="1:27">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A328" t="s">
         <v>679</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>24224</v>
       </c>
     </row>
-    <row r="329" spans="1:27">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A329" t="s">
         <v>681</v>
       </c>
@@ -29946,7 +29946,7 @@
         <v>30271</v>
       </c>
     </row>
-    <row r="330" spans="1:27">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A330" t="s">
         <v>683</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>27801</v>
       </c>
     </row>
-    <row r="331" spans="1:27">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A331" t="s">
         <v>685</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>26185</v>
       </c>
     </row>
-    <row r="332" spans="1:27">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A332" t="s">
         <v>687</v>
       </c>
@@ -30195,7 +30195,7 @@
         <v>22375</v>
       </c>
     </row>
-    <row r="333" spans="1:27">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A333" t="s">
         <v>689</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>23038</v>
       </c>
     </row>
-    <row r="334" spans="1:27">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A334" t="s">
         <v>691</v>
       </c>
@@ -30361,7 +30361,7 @@
         <v>60764</v>
       </c>
     </row>
-    <row r="335" spans="1:27">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A335" t="s">
         <v>693</v>
       </c>
@@ -30444,7 +30444,7 @@
         <v>30222</v>
       </c>
     </row>
-    <row r="336" spans="1:27">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A336" t="s">
         <v>695</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>32826</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A337" t="s">
         <v>697</v>
       </c>
@@ -30610,7 +30610,7 @@
         <v>33902</v>
       </c>
     </row>
-    <row r="338" spans="1:27">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A338" t="s">
         <v>699</v>
       </c>
@@ -30693,7 +30693,7 @@
         <v>35144</v>
       </c>
     </row>
-    <row r="339" spans="1:27">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A339" t="s">
         <v>701</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>27058</v>
       </c>
     </row>
-    <row r="340" spans="1:27">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A340" t="s">
         <v>703</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="341" spans="1:27">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A341" t="s">
         <v>705</v>
       </c>
@@ -30942,7 +30942,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="342" spans="1:27">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A342" t="s">
         <v>707</v>
       </c>
@@ -31025,7 +31025,7 @@
         <v>16692</v>
       </c>
     </row>
-    <row r="343" spans="1:27">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A343" t="s">
         <v>709</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>31594</v>
       </c>
     </row>
-    <row r="344" spans="1:27">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A344" t="s">
         <v>711</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>18611</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A345" t="s">
         <v>713</v>
       </c>
@@ -31274,7 +31274,7 @@
         <v>31266</v>
       </c>
     </row>
-    <row r="346" spans="1:27">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A346" t="s">
         <v>715</v>
       </c>
@@ -31357,7 +31357,7 @@
         <v>25315</v>
       </c>
     </row>
-    <row r="347" spans="1:27">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A347" t="s">
         <v>717</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>29413</v>
       </c>
     </row>
-    <row r="348" spans="1:27">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A348" t="s">
         <v>719</v>
       </c>
@@ -31523,7 +31523,7 @@
         <v>21590</v>
       </c>
     </row>
-    <row r="349" spans="1:27">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A349" t="s">
         <v>721</v>
       </c>
@@ -31606,7 +31606,7 @@
         <v>27183</v>
       </c>
     </row>
-    <row r="350" spans="1:27">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A350" t="s">
         <v>723</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>27149</v>
       </c>
     </row>
-    <row r="351" spans="1:27">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A351" t="s">
         <v>725</v>
       </c>
@@ -31772,7 +31772,7 @@
         <v>49821</v>
       </c>
     </row>
-    <row r="352" spans="1:27">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A352" t="s">
         <v>727</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>24299</v>
       </c>
     </row>
-    <row r="353" spans="1:27">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A353" t="s">
         <v>729</v>
       </c>
@@ -31938,7 +31938,7 @@
         <v>23482</v>
       </c>
     </row>
-    <row r="354" spans="1:27">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A354" t="s">
         <v>731</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>17635</v>
       </c>
     </row>
-    <row r="355" spans="1:27">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A355" t="s">
         <v>733</v>
       </c>
@@ -32104,7 +32104,7 @@
         <v>26204</v>
       </c>
     </row>
-    <row r="356" spans="1:27">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A356" t="s">
         <v>735</v>
       </c>
@@ -32187,7 +32187,7 @@
         <v>31467</v>
       </c>
     </row>
-    <row r="357" spans="1:27">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A357" t="s">
         <v>737</v>
       </c>
@@ -32270,7 +32270,7 @@
         <v>21363</v>
       </c>
     </row>
-    <row r="358" spans="1:27">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A358" t="s">
         <v>739</v>
       </c>
@@ -32353,7 +32353,7 @@
         <v>29490</v>
       </c>
     </row>
-    <row r="359" spans="1:27">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A359" t="s">
         <v>741</v>
       </c>
@@ -32436,7 +32436,7 @@
         <v>29637</v>
       </c>
     </row>
-    <row r="360" spans="1:27">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A360" t="s">
         <v>743</v>
       </c>
@@ -32519,7 +32519,7 @@
         <v>23369</v>
       </c>
     </row>
-    <row r="361" spans="1:27">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A361" t="s">
         <v>745</v>
       </c>
@@ -32912,11 +32912,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <RetentionType xmlns="63b866ec-3dff-4cd9-972e-66243271eb0b">Notify</RetentionType>
@@ -32933,14 +32928,45 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50A3E8D-DB59-4913-A673-0D7A27F201FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A50A3E8D-DB59-4913-A673-0D7A27F201FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63b866ec-3dff-4cd9-972e-66243271eb0b"/>
+    <ds:schemaRef ds:uri="c905226d-1091-4439-86ff-57c6f5cddf17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7A3084-4B94-41A3-AF7B-20794B7EDA1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1D673-ECE5-478F-A116-1C2C6B889031}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b866ec-3dff-4cd9-972e-66243271eb0b"/>
+    <ds:schemaRef ds:uri="c905226d-1091-4439-86ff-57c6f5cddf17"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1D673-ECE5-478F-A116-1C2C6B889031}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD7A3084-4B94-41A3-AF7B-20794B7EDA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>